--- a/meta/Метаданные 1.2.1.xlsx
+++ b/meta/Метаданные 1.2.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\413\ЦУР\Метаданные для заполнения\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -208,6 +208,9 @@
     <t>Концепция оценки национальной бедности отличаются от международных оценок бедности. Национальный уровень бедности определяется по чертам бедности по конкретным странам в местных валютах, которые в разных странах различны и отличаются от международной черты бедности в размере 1,90 долл. США в день. Таким образом, уровень национальной бедности нельзя сравнивать по странам или с уровнем бедности в 1,90 доллара за день.</t>
   </si>
   <si>
+    <t xml:space="preserve">Оценки национальной бедности обычно производятся и принадлежат правительствам стран (например, Национальными статистическими офисами), а иногда с технической помощью со стороны Всемирного банка и ПРООН (UNDP). После опубликования национальной оценки бедности правительством, Глобальная группа по вопросам бедности Всемирного банка оценивает методологию, используемую правительством, по возможности оценивает оценки с необработанными данными и консультирует экономистов страны для публикации. Принятые оценки наряду с метаданными будут опубликованы в базе данных WDI, а также в Базе данных Всемирного банка по вопросам бедности и социальной справедливости.Другим источником является оценка бедности Всемирного банка. Всемирный банк периодически готовит оценки бедности для стран, в которых она активно участвует, в тесном сотрудничестве с национальными учреждениями, группами гражданского общества и другими учреждениями, занимающимися вопросами развития. Отчеты об оценках бедности сообщают о масштабах и причинах бедности и предлагают стратегии по ее сокращению. Они часто включают отдельные оценки городской и сельской бедности. Такие исследования бедности являются наилучшим источником информации об оценке бедности с использованием национальной черты бедности. </t>
+  </si>
+  <si>
     <r>
       <t>Мониторинг национального уровня бедности имеет важное значение для программ развития конкретн</t>
     </r>
@@ -319,16 +322,12 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>Показатели бедности, полученные с применением нацианальной черты бедности не предназначены для международного сопоставления по странам.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Оценки национальной бедности обычно производятся и принадлежат правительствам стран (например, Национальными статистическими офисами), а иногда с технической помощью со стороны Всемирного банка и ПРООН (UNDP). После опубликования национальной оценки бедности правительством, Глобальная группа по вопросам бедности Всемирного банка оценивает методологию, используемую правительством, по возможности оценивает оценки с необработанными данными и консультирует экономистов страны для публикации. Принятые оценки наряду с метаданными будут опубликованы в базе данных WDI, а также в Базе данных Всемирного банка по вопросам бедности и социальной справедливости.Другим источником является оценка бедности Всемирного банка. Всемирный банк периодически готовит оценки бедности для стран, в которых она активно участвует, в тесном сотрудничестве с национальными учреждениями, группами гражданского общества и другими учреждениями, занимающимися вопросами развития. Отчеты об оценках бедности сообщают о масштабах и причинах бедности и предлагают стратегии по ее сокращению. Они часто включают отдельные оценки городской и сельской бедности. Такие исследования бедности являются наилучшим источником информации об оценке бедности с использованием национальной черты бедности. </t>
-  </si>
-  <si>
-    <r>
-      <t>Формула для расчета доли общего, городского и сельского населения, живущего за национальной чертой бедности, доля населения, живущего в условиях нищеты, выглядит следующим образом:                                                                                         Где I (.) - функция, которая принимает значение 1, если выражение в скобках истинно, а 0 - ложно. Если индивидуальное потребление или доход меньше национальной черты бедности z (например, в абсолютном выражении черта может быть ценой единицы потребления или в относительном выражении процентом от распределения доходов), то I (.) равна 1, и индивидуум считается бедным. Np – общее, городское или сельское число бедных. N – общее, городское или сельское население.
-Где I (.) - функция, которая принимает значение 1, если выражение в скобках истинно, а 0 - ложно. Если индивидуальное потребление или доход меньше национальной черты бедности z (например, в абсолютном выражении черта может быть ценой единицы потребления или в относительном выражении процентом от распределения доходов), то I (.) равна 1, и индивидуум считается бедным. Np – общее, городское или сельское число бедных. N – общее, городское или сельское население.
+      <t>Показатели бедности, полученные с применением национальной черты бедности не предназначены для международного сопоставления по странам.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
 Национальные показатели бедности используют черту бедности в конкретной стране, отражающую экономические и социальные условия страны.</t>
     </r>
     <r>
@@ -603,15 +602,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>838201</xdr:colOff>
+      <xdr:colOff>1552576</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>485778</xdr:rowOff>
+      <xdr:rowOff>366715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:colOff>2686050</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>775350</xdr:rowOff>
+      <xdr:rowOff>656287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -635,7 +634,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4095751" y="16640178"/>
+          <a:off x="4965701" y="14241465"/>
           <a:ext cx="1133474" cy="289572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -924,43 +923,43 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.453125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -968,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -976,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -984,7 +983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -992,7 +991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1000,13 +999,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1030,13 +1029,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1044,7 +1043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1052,13 +1051,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1082,13 +1081,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1104,25 +1103,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>27</v>
@@ -1138,23 +1137,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="87.1796875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -1178,13 +1177,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1224,13 +1223,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1238,15 +1237,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1254,21 +1253,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="17"/>
     </row>
-    <row r="16" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="232" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1276,13 +1275,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="56" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1298,19 +1297,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="20"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="20"/>
     </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="42" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1318,37 +1317,37 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="13"/>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="70" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F65" s="16"/>
       <c r="K65" s="8"/>
     </row>

--- a/meta/Метаданные 1.2.1.xlsx
+++ b/meta/Метаданные 1.2.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\413\ЦУР\Метаданные для заполнения\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18990" windowHeight="8490" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -208,157 +208,42 @@
     <t>Концепция оценки национальной бедности отличаются от международных оценок бедности. Национальный уровень бедности определяется по чертам бедности по конкретным странам в местных валютах, которые в разных странах различны и отличаются от международной черты бедности в размере 1,90 долл. США в день. Таким образом, уровень национальной бедности нельзя сравнивать по странам или с уровнем бедности в 1,90 доллара за день.</t>
   </si>
   <si>
+    <t xml:space="preserve">Оценки национальной бедности обычно производятся и принадлежат правительствам стран (например, Национальными статистическими офисами), а иногда с технической помощью со стороны Всемирного банка и ПРООН (UNDP). После опубликования национальной оценки бедности правительством, Глобальная группа по вопросам бедности Всемирного банка оценивает методологию, используемую правительством, по возможности оценивает оценки с необработанными данными и консультирует экономистов страны для публикации. Принятые оценки наряду с метаданными будут опубликованы в базе данных WDI, а также в Базе данных Всемирного банка по вопросам бедности и социальной справедливости.Другим источником является оценка бедности Всемирного банка. Всемирный банк периодически готовит оценки бедности для стран, в которых она активно участвует, в тесном сотрудничестве с национальными учреждениями, группами гражданского общества и другими учреждениями, занимающимися вопросами развития. Отчеты об оценках бедности сообщают о масштабах и причинах бедности и предлагают стратегии по ее сокращению. Они часто включают отдельные оценки городской и сельской бедности. Такие исследования бедности являются наилучшим источником информации об оценке бедности с использованием национальной черты бедности. </t>
+  </si>
+  <si>
     <r>
-      <t>Мониторинг национального уровня бедности имеет важное значение для программ развития конкретн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ой</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> стран</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ы</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>. Национальн</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>ая</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> черт</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>а</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> бедности использу</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>е</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">тся для получения более точных оценок бедности в соответствии с конкретными экономическими и социальными условиями страны. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Показатели бедности, полученные с применением нацианальной черты бедности не предназначены для международного сопоставления по странам.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Оценки национальной бедности обычно производятся и принадлежат правительствам стран (например, Национальными статистическими офисами), а иногда с технической помощью со стороны Всемирного банка и ПРООН (UNDP). После опубликования национальной оценки бедности правительством, Глобальная группа по вопросам бедности Всемирного банка оценивает методологию, используемую правительством, по возможности оценивает оценки с необработанными данными и консультирует экономистов страны для публикации. Принятые оценки наряду с метаданными будут опубликованы в базе данных WDI, а также в Базе данных Всемирного банка по вопросам бедности и социальной справедливости.Другим источником является оценка бедности Всемирного банка. Всемирный банк периодически готовит оценки бедности для стран, в которых она активно участвует, в тесном сотрудничестве с национальными учреждениями, группами гражданского общества и другими учреждениями, занимающимися вопросами развития. Отчеты об оценках бедности сообщают о масштабах и причинах бедности и предлагают стратегии по ее сокращению. Они часто включают отдельные оценки городской и сельской бедности. Такие исследования бедности являются наилучшим источником информации об оценке бедности с использованием национальной черты бедности. </t>
-  </si>
-  <si>
-    <r>
-      <t>Формула для расчета доли общего, городского и сельского населения, живущего за национальной чертой бедности, доля населения, живущего в условиях нищеты, выглядит следующим образом:                                                                                         Где I (.) - функция, которая принимает значение 1, если выражение в скобках истинно, а 0 - ложно. Если индивидуальное потребление или доход меньше национальной черты бедности z (например, в абсолютном выражении черта может быть ценой единицы потребления или в относительном выражении процентом от распределения доходов), то I (.) равна 1, и индивидуум считается бедным. Np – общее, городское или сельское число бедных. N – общее, городское или сельское население.
-Где I (.) - функция, которая принимает значение 1, если выражение в скобках истинно, а 0 - ложно. Если индивидуальное потребление или доход меньше национальной черты бедности z (например, в абсолютном выражении черта может быть ценой единицы потребления или в относительном выражении процентом от распределения доходов), то I (.) равна 1, и индивидуум считается бедным. Np – общее, городское или сельское число бедных. N – общее, городское или сельское население.
+      <t xml:space="preserve">
 Национальные показатели бедности используют черту бедности в конкретной стране, отражающую экономические и социальные условия страны.</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF0070C0"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>Мониторинг национального уровня бедности имеет важное значение для программ развития конкретной страны. Национальная черта бедности используется для получения более точных оценок бедности в соответствии с конкретными экономическими и социальными условиями страны. Показатели бедности, полученные с применением национальной черты бедности не предназначены для международного сопоставления по странам.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,33 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -429,47 +290,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <i/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF202020"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF0070C0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -512,9 +399,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -543,42 +430,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -603,15 +502,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>838201</xdr:colOff>
+      <xdr:colOff>1552576</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>485778</xdr:rowOff>
+      <xdr:rowOff>366715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:colOff>2686050</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>775350</xdr:rowOff>
+      <xdr:rowOff>656287</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -635,7 +534,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4095751" y="16640178"/>
+          <a:off x="4965701" y="14241465"/>
           <a:ext cx="1133474" cy="289572"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -924,43 +823,43 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.453125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -968,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -976,7 +875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -984,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -992,7 +891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1000,13 +899,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1014,7 +913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1022,7 +921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1030,13 +929,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1044,7 +943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -1052,13 +951,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1074,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -1082,13 +981,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1096,7 +995,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1104,25 +1003,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>27</v>
@@ -1138,218 +1037,218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="87.1796875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="157.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="1:2" ht="263.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="17"/>
-    </row>
-    <row r="16" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="13" t="s">
+    <row r="17" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+      <c r="A18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="13"/>
+    </row>
+    <row r="19" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:2" ht="270" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="20"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="B21" s="23"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20"/>
-    </row>
-    <row r="23" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+      <c r="A25" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="20" t="s">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+      <c r="A26" s="14"/>
+      <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="18" t="s">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:2" ht="139.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="14"/>
+      <c r="B28" s="25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="16"/>
+    <row r="65" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F65" s="10"/>
       <c r="K65" s="8"/>
     </row>
   </sheetData>
